--- a/Estimation.xlsx
+++ b/Estimation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Project creation with required dependancies</t>
   </si>
@@ -72,13 +72,31 @@
   </si>
   <si>
     <t>3md</t>
+  </si>
+  <si>
+    <t>20.6Hrs</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Dev(Hrs )</t>
+  </si>
+  <si>
+    <t>UI(Hrs )</t>
+  </si>
+  <si>
+    <t>~3md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +112,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,11 +173,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -148,11 +218,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -185,8 +283,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:C17" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:E17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Task"/>
+    <tableColumn id="2" name="Dev(Hrs)"/>
+    <tableColumn id="3" name="UI(Hrs)"/>
+    <tableColumn id="4" name="Dev(Hrs )"/>
+    <tableColumn id="5" name="UI(Hrs )"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A19:C33" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A19:C33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Dev(Hrs)"/>
@@ -459,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C17"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C17" sqref="A3:C17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,10 +582,22 @@
     <col min="1" max="1" width="40.21875" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -483,32 +607,47 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -518,8 +657,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -529,8 +674,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -540,8 +691,14 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -551,16 +708,25 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -570,16 +736,25 @@
       <c r="C12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -589,8 +764,14 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f>SUM(B4:B14)</f>
         <v>14.5</v>
@@ -599,24 +780,183 @@
         <f>SUM(C4:C14)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <f>SUM(D4:D14)</f>
+        <v>14.350000000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E4:E14)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0.9</v>
+      </c>
+      <c r="C26">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>3.5</v>
+      </c>
+      <c r="C28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f>SUM(B20:B30)</f>
+        <v>14.350000000000001</v>
+      </c>
+      <c r="C31" s="2">
+        <f>SUM(C20:C30)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>